--- a/results/CO2_reduction_75_percent.xlsx
+++ b/results/CO2_reduction_75_percent.xlsx
@@ -570,28 +570,28 @@
         <v>26</v>
       </c>
       <c r="D2">
-        <v>16.83183186516807</v>
+        <v>15.80468464832476</v>
       </c>
       <c r="E2">
-        <v>11.49175384440765</v>
+        <v>11.3060484675785</v>
       </c>
       <c r="F2">
-        <v>8.896865705299652</v>
+        <v>9.881104928019317</v>
       </c>
       <c r="G2">
-        <v>12.84265004916629</v>
+        <v>12.41233036804361</v>
       </c>
       <c r="H2">
-        <v>15.01064733677658</v>
+        <v>14.74687057115408</v>
       </c>
       <c r="I2">
-        <v>11.69189413167798</v>
+        <v>13.13375382625446</v>
       </c>
       <c r="J2">
-        <v>6.630829276126988</v>
+        <v>6.61448504315931</v>
       </c>
       <c r="K2">
-        <v>8.10352779137683</v>
+        <v>7.600722147463019</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -601,28 +601,28 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>16.83183186516807</v>
+        <v>15.80468464832476</v>
       </c>
       <c r="E3">
-        <v>11.49175384440765</v>
+        <v>11.3060484675785</v>
       </c>
       <c r="F3">
-        <v>8.896865705299652</v>
+        <v>9.881104928019317</v>
       </c>
       <c r="G3">
-        <v>12.84265004916629</v>
+        <v>12.41233036804361</v>
       </c>
       <c r="H3">
-        <v>15.01064733677658</v>
+        <v>14.74687057115408</v>
       </c>
       <c r="I3">
-        <v>11.69189413167798</v>
+        <v>13.13375382625446</v>
       </c>
       <c r="J3">
-        <v>6.630829276126988</v>
+        <v>6.61448504315931</v>
       </c>
       <c r="K3">
-        <v>8.10352779137683</v>
+        <v>7.600722147463019</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -636,28 +636,28 @@
         <v>28</v>
       </c>
       <c r="D4">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E4">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F4">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G4">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H4">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I4">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J4">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K4">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -667,28 +667,28 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>133963.4514329218</v>
+        <v>133963.4514329197</v>
       </c>
       <c r="E5">
-        <v>66115.98745484417</v>
+        <v>66115.98745484406</v>
       </c>
       <c r="F5">
-        <v>124796.7594675441</v>
+        <v>124796.759467546</v>
       </c>
       <c r="G5">
-        <v>40441.20326623051</v>
+        <v>40441.20326623064</v>
       </c>
       <c r="H5">
-        <v>77229.28116530157</v>
+        <v>77229.28116530248</v>
       </c>
       <c r="I5">
-        <v>41413.40915452756</v>
+        <v>41413.40915452744</v>
       </c>
       <c r="J5">
-        <v>28088.76622265798</v>
+        <v>28088.76622265801</v>
       </c>
       <c r="K5">
-        <v>15851.14124473496</v>
+        <v>15851.14124473505</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -762,22 +762,22 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E8">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F8">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G8">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H8">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K8">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -787,22 +787,22 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>3167.329183065777</v>
+        <v>3167.329183065871</v>
       </c>
       <c r="E9">
-        <v>170.9880017507264</v>
+        <v>170.988001750725</v>
       </c>
       <c r="F9">
-        <v>174.4775528077582</v>
+        <v>174.4775528077909</v>
       </c>
       <c r="G9">
-        <v>198.9044102033907</v>
+        <v>198.9044102034098</v>
       </c>
       <c r="H9">
-        <v>12204.71027128419</v>
+        <v>12204.71027128515</v>
       </c>
       <c r="K9">
-        <v>1480.823705210843</v>
+        <v>1480.823705210851</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -843,28 +843,28 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E11">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F11">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G11">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H11">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I11">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J11">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K11">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -874,28 +874,28 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>15855.22909103999</v>
+        <v>15855.22909103749</v>
       </c>
       <c r="E12">
-        <v>11007.05688237806</v>
+        <v>11007.0568823791</v>
       </c>
       <c r="F12">
-        <v>16452.59494376484</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G12">
-        <v>5264.131864364819</v>
+        <v>5264.131864365728</v>
       </c>
       <c r="H12">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I12">
-        <v>5747.423572107636</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J12">
-        <v>3710.050513811987</v>
+        <v>3710.050513811419</v>
       </c>
       <c r="K12">
-        <v>1453.124166487185</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -909,28 +909,28 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>2.771809128045091</v>
+        <v>2.602661999301482</v>
       </c>
       <c r="E13">
-        <v>1.892423145521858</v>
+        <v>1.861841812322911</v>
       </c>
       <c r="F13">
-        <v>1.465105745499594</v>
+        <v>1.627186930932538</v>
       </c>
       <c r="G13">
-        <v>2.114884162325394</v>
+        <v>2.044020573046224</v>
       </c>
       <c r="H13">
-        <v>2.471902621130869</v>
+        <v>2.428464755746693</v>
       </c>
       <c r="I13">
-        <v>1.925381570938016</v>
+        <v>2.16282214750792</v>
       </c>
       <c r="J13">
-        <v>1.091942532536335</v>
+        <v>1.089251019545283</v>
       </c>
       <c r="K13">
-        <v>1.334461541764045</v>
+        <v>1.251661209358147</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -942,28 +942,28 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>2.771809128045091</v>
+        <v>2.602661999301482</v>
       </c>
       <c r="E14">
-        <v>1.892423145521858</v>
+        <v>1.861841812322911</v>
       </c>
       <c r="F14">
-        <v>1.465105745499594</v>
+        <v>1.627186930932538</v>
       </c>
       <c r="G14">
-        <v>2.114884162325394</v>
+        <v>2.044020573046224</v>
       </c>
       <c r="H14">
-        <v>2.471902621130869</v>
+        <v>2.428464755746693</v>
       </c>
       <c r="I14">
-        <v>1.925381570938016</v>
+        <v>2.16282214750792</v>
       </c>
       <c r="J14">
-        <v>1.091942532536335</v>
+        <v>1.089251019545283</v>
       </c>
       <c r="K14">
-        <v>1.334461541764045</v>
+        <v>1.251661209358147</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -975,28 +975,28 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>83740.45704063719</v>
+        <v>78630.27188222001</v>
       </c>
       <c r="E15">
-        <v>57172.90469854555</v>
+        <v>56248.99735114536</v>
       </c>
       <c r="F15">
-        <v>44263.01345920224</v>
+        <v>49159.72601004646</v>
       </c>
       <c r="G15">
-        <v>63893.78133913576</v>
+        <v>61752.88740320917</v>
       </c>
       <c r="H15">
-        <v>74679.8374964009</v>
+        <v>73367.51527935629</v>
       </c>
       <c r="I15">
-        <v>58168.62752078599</v>
+        <v>65342.05883709728</v>
       </c>
       <c r="J15">
-        <v>32989.20037874124</v>
+        <v>32907.88578686657</v>
       </c>
       <c r="K15">
-        <v>40316.05866356631</v>
+        <v>37814.53804707394</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1006,28 +1006,28 @@
         <v>35</v>
       </c>
       <c r="D16">
-        <v>83740.45704063719</v>
+        <v>78630.27188222001</v>
       </c>
       <c r="E16">
-        <v>57172.90469854555</v>
+        <v>56248.99735114536</v>
       </c>
       <c r="F16">
-        <v>44263.01345920224</v>
+        <v>49159.72601004646</v>
       </c>
       <c r="G16">
-        <v>63893.78133913576</v>
+        <v>61752.88740320917</v>
       </c>
       <c r="H16">
-        <v>74679.8374964009</v>
+        <v>73367.51527935629</v>
       </c>
       <c r="I16">
-        <v>58168.62752078599</v>
+        <v>65342.05883709728</v>
       </c>
       <c r="J16">
-        <v>32989.20037874124</v>
+        <v>32907.88578686657</v>
       </c>
       <c r="K16">
-        <v>40316.05866356631</v>
+        <v>37814.53804707394</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>33861.5174499319</v>
+        <v>33861.51744993221</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33861.5174499319</v>
+        <v>33861.51744993221</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1.121040321172985</v>
       </c>
       <c r="F24">
-        <v>7.774218927785641</v>
+        <v>7.774183092324032</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.670821110072603</v>
+        <v>4.670838133493789</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>27.73930172164082</v>
+        <v>27.73917385661783</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.66602359203406</v>
+        <v>16.66608433354662</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1329,13 +1329,13 @@
         <v>0.9370403211729852</v>
       </c>
       <c r="F26">
-        <v>6.498211048590163</v>
+        <v>6.498181094919611</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3.904184024839036</v>
+        <v>3.904198254150645</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1350,13 +1350,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="F27">
-        <v>63.80039395977388</v>
+        <v>63.80009987022101</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>38.33185426167834</v>
+        <v>38.33199396715722</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1368,16 +1368,16 @@
         <v>28</v>
       </c>
       <c r="E28">
-        <v>17741.68125435159</v>
+        <v>17741.68125435166</v>
       </c>
       <c r="F28">
-        <v>119324.9290789764</v>
+        <v>119324.3790476546</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>76822.17568163246</v>
+        <v>76822.4556701462</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1387,16 +1387,16 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>17741.68125435159</v>
+        <v>17741.68125435166</v>
       </c>
       <c r="F29">
-        <v>119324.9290789764</v>
+        <v>119324.3790476546</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>76822.17568163246</v>
+        <v>76822.4556701462</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1411,13 +1411,13 @@
         <v>0.184</v>
       </c>
       <c r="F30">
-        <v>1.276007879195478</v>
+        <v>1.27600199740442</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.7666370852335669</v>
+        <v>0.7666398793431444</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.854934835858231</v>
+        <v>1.854945716453328</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3.015261052055008</v>
+        <v>3.015254307418758</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>13.83893170686928</v>
+        <v>13.83901288266563</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>22.49566452207234</v>
+        <v>22.49561420302142</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.550478338307107</v>
+        <v>1.550487433034684</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2.520356432569417</v>
+        <v>2.520350794952286</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>15.22282487755621</v>
+        <v>15.2229141709322</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>24.74523097427958</v>
+        <v>24.74517562332356</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>32860.63573016253</v>
+        <v>32860.82848263334</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>58947.32317988032</v>
+        <v>58947.22626224309</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>32860.63573016253</v>
+        <v>32860.82848263334</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>58947.32317988032</v>
+        <v>58947.22626224309</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.3044564975511242</v>
+        <v>0.3044582834186439</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.4949046194855915</v>
+        <v>0.4949035124664712</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1728,28 +1728,28 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>0.7112049183666107</v>
+        <v>0.6833789981303755</v>
       </c>
       <c r="E2">
-        <v>0.4804779004817626</v>
+        <v>0.4586691277816709</v>
       </c>
       <c r="F2">
-        <v>0.4747980582919349</v>
+        <v>0.50854920158461</v>
       </c>
       <c r="G2">
-        <v>0.4282071774955127</v>
+        <v>0.4564201163472491</v>
       </c>
       <c r="H2">
-        <v>0.6013335742045705</v>
+        <v>0.5956204235153153</v>
       </c>
       <c r="I2">
-        <v>0.4754953488985842</v>
+        <v>0.4602846153408451</v>
       </c>
       <c r="J2">
-        <v>0.3239511946230801</v>
+        <v>0.3239510875280001</v>
       </c>
       <c r="K2">
-        <v>0.2936328419669831</v>
+        <v>0.3022172598497744</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1761,28 +1761,28 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>9.182339825630988</v>
+        <v>8.823080420962045</v>
       </c>
       <c r="E3">
-        <v>6.203432016558422</v>
+        <v>5.921859776349366</v>
       </c>
       <c r="F3">
-        <v>6.130099788678539</v>
+        <v>6.565859524323611</v>
       </c>
       <c r="G3">
-        <v>5.52856668731761</v>
+        <v>5.892822874706419</v>
       </c>
       <c r="H3">
-        <v>7.763795053033315</v>
+        <v>7.690032780376003</v>
       </c>
       <c r="I3">
-        <v>6.139102481351389</v>
+        <v>5.942717275178936</v>
       </c>
       <c r="J3">
-        <v>4.182521632133717</v>
+        <v>4.182520249433187</v>
       </c>
       <c r="K3">
-        <v>3.791082526677338</v>
+        <v>3.901915621569378</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1794,28 +1794,28 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.5183757820283599</v>
+        <v>0.4980943092901725</v>
       </c>
       <c r="E4">
-        <v>0.3502058281340357</v>
+        <v>0.3343100724783342</v>
       </c>
       <c r="F4">
-        <v>0.3460659627296856</v>
+        <v>0.3706661515738142</v>
       </c>
       <c r="G4">
-        <v>0.3121072770618429</v>
+        <v>0.3326708359784143</v>
       </c>
       <c r="H4">
-        <v>0.4382938780908708</v>
+        <v>0.4341297351274192</v>
       </c>
       <c r="I4">
-        <v>0.346574196790205</v>
+        <v>0.3354875525620874</v>
       </c>
       <c r="J4">
-        <v>0.236118240348272</v>
+        <v>0.2361181622899032</v>
       </c>
       <c r="K4">
-        <v>0.2140201089067591</v>
+        <v>0.2202770317968174</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1827,28 +1827,28 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>5.968520886660142</v>
+        <v>5.735002273625329</v>
       </c>
       <c r="E5">
-        <v>4.032230810762974</v>
+        <v>3.849208854627088</v>
       </c>
       <c r="F5">
-        <v>3.98456486264105</v>
+        <v>4.267808690810347</v>
       </c>
       <c r="G5">
-        <v>3.593568346756447</v>
+        <v>3.830334868559173</v>
       </c>
       <c r="H5">
-        <v>5.046466784471654</v>
+        <v>4.998521307244403</v>
       </c>
       <c r="I5">
-        <v>3.990416612878403</v>
+        <v>3.862766228866308</v>
       </c>
       <c r="J5">
-        <v>2.718639060886916</v>
+        <v>2.718638162131572</v>
       </c>
       <c r="K5">
-        <v>2.464203642340269</v>
+        <v>2.536245154020096</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1860,28 +1860,28 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>50244.27422438232</v>
+        <v>47178.16312933007</v>
       </c>
       <c r="E6">
-        <v>34303.74281912732</v>
+        <v>33749.3984106894</v>
       </c>
       <c r="F6">
-        <v>26557.80807552135</v>
+        <v>29495.83560602462</v>
       </c>
       <c r="G6">
-        <v>38336.26880348144</v>
+        <v>37051.73244192472</v>
       </c>
       <c r="H6">
-        <v>44807.90249784055</v>
+        <v>44020.50916761976</v>
       </c>
       <c r="I6">
-        <v>34901.17651247158</v>
+        <v>39205.23530225846</v>
       </c>
       <c r="J6">
-        <v>19793.52022724474</v>
+        <v>19744.73147211764</v>
       </c>
       <c r="K6">
-        <v>24189.63519813978</v>
+        <v>22688.72282824598</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1891,28 +1891,28 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>50244.27422438232</v>
+        <v>47178.16312933007</v>
       </c>
       <c r="E7">
-        <v>34303.74281912732</v>
+        <v>33749.3984106894</v>
       </c>
       <c r="F7">
-        <v>26557.80807552135</v>
+        <v>29495.83560602462</v>
       </c>
       <c r="G7">
-        <v>38336.26880348144</v>
+        <v>37051.73244192472</v>
       </c>
       <c r="H7">
-        <v>44807.90249784055</v>
+        <v>44020.50916761976</v>
       </c>
       <c r="I7">
-        <v>34901.17651247158</v>
+        <v>39205.23530225846</v>
       </c>
       <c r="J7">
-        <v>19793.52022724474</v>
+        <v>19744.73147211764</v>
       </c>
       <c r="K7">
-        <v>24189.63519813978</v>
+        <v>22688.72282824598</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1924,28 +1924,28 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>0.1928291363382508</v>
+        <v>0.185284688840203</v>
       </c>
       <c r="E8">
-        <v>0.1302720723477269</v>
+        <v>0.1243590553033367</v>
       </c>
       <c r="F8">
-        <v>0.1287320955622493</v>
+        <v>0.1378830500107958</v>
       </c>
       <c r="G8">
-        <v>0.1160999004336698</v>
+        <v>0.1237492803688348</v>
       </c>
       <c r="H8">
-        <v>0.1630396961136996</v>
+        <v>0.1614906883878961</v>
       </c>
       <c r="I8">
-        <v>0.1289211521083792</v>
+        <v>0.1247970627787577</v>
       </c>
       <c r="J8">
-        <v>0.08783295427480807</v>
+        <v>0.08783292523809694</v>
       </c>
       <c r="K8">
-        <v>0.07961273306022409</v>
+        <v>0.08194022805295695</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.98718707887901</v>
+        <v>0.9871870788790098</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8453738887309084</v>
+        <v>0.8453738887309081</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.672527605924066</v>
+        <v>5.672527605924064</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>99382.68365578963</v>
+        <v>99382.68365577029</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>99382.68365578963</v>
+        <v>99382.68365577029</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0004058898589688081</v>
+        <v>0.0004306810837264257</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02415602379545253</v>
+        <v>0.02563144231584834</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.000357577811377903</v>
+        <v>0.000379418199094729</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.003647559593113331</v>
+        <v>0.003870347789693099</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.98001081611478</v>
+        <v>11.65065559811292</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.98001081611478</v>
+        <v>11.65065559811292</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.907885368844617</v>
+        <v>10.51406645803003</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.907885368844617</v>
+        <v>10.51406645803003</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.831204759090505E-05</v>
+        <v>5.126288463169668E-05</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>2648.577317253533</v>
+        <v>2644.315038688381</v>
       </c>
       <c r="E13">
-        <v>1249.525465682515</v>
+        <v>1297.255114671825</v>
       </c>
       <c r="F13">
-        <v>162.9233267830699</v>
+        <v>147.8260546383784</v>
       </c>
       <c r="G13">
-        <v>3154.437105174974</v>
+        <v>3100.577610107261</v>
       </c>
       <c r="H13">
-        <v>1192.596467065943</v>
+        <v>1079.293470702464</v>
       </c>
       <c r="I13">
-        <v>3665.008228426214</v>
+        <v>3809.345699420047</v>
       </c>
       <c r="J13">
-        <v>182.5722285145368</v>
+        <v>175.9602995016265</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2630,25 +2630,25 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>2648.577317253533</v>
+        <v>2644.315038688381</v>
       </c>
       <c r="E14">
-        <v>1249.525465682515</v>
+        <v>1297.255114671825</v>
       </c>
       <c r="F14">
-        <v>162.9233267830699</v>
+        <v>147.8260546383784</v>
       </c>
       <c r="G14">
-        <v>3154.437105174974</v>
+        <v>3100.577610107261</v>
       </c>
       <c r="H14">
-        <v>1192.596467065943</v>
+        <v>1079.293470702464</v>
       </c>
       <c r="I14">
-        <v>3665.008228426214</v>
+        <v>3809.345699420047</v>
       </c>
       <c r="J14">
-        <v>182.5722285145368</v>
+        <v>175.9602995016265</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2660,25 +2660,25 @@
         <v>28</v>
       </c>
       <c r="D15">
-        <v>2050.942766647799</v>
+        <v>2047.64242868175</v>
       </c>
       <c r="E15">
-        <v>967.5764983808961</v>
+        <v>1004.539044555939</v>
       </c>
       <c r="F15">
-        <v>126.1620695720193</v>
+        <v>114.4712110503703</v>
       </c>
       <c r="G15">
-        <v>2442.665790491697</v>
+        <v>2400.950395476219</v>
       </c>
       <c r="H15">
-        <v>923.4889382240768</v>
+        <v>835.7557005254761</v>
       </c>
       <c r="I15">
-        <v>2837.997309651105</v>
+        <v>2949.767877723292</v>
       </c>
       <c r="J15">
-        <v>141.3789689530322</v>
+        <v>136.2590530322223</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2688,25 +2688,25 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>2050.942766647799</v>
+        <v>2047.64242868175</v>
       </c>
       <c r="E16">
-        <v>967.5764983808961</v>
+        <v>1004.539044555939</v>
       </c>
       <c r="F16">
-        <v>126.1620695720193</v>
+        <v>114.4712110503703</v>
       </c>
       <c r="G16">
-        <v>2442.665790491697</v>
+        <v>2400.950395476219</v>
       </c>
       <c r="H16">
-        <v>923.4889382240768</v>
+        <v>835.7557005254761</v>
       </c>
       <c r="I16">
-        <v>2837.997309651105</v>
+        <v>2949.767877723292</v>
       </c>
       <c r="J16">
-        <v>141.3789689530322</v>
+        <v>136.2590530322223</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01370455871991793</v>
+        <v>0.01370455871991791</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.002953335585992168</v>
+        <v>0.00295333558599216</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2837,13 +2837,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01370455871991793</v>
+        <v>0.01370455871991791</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.005555170222539268</v>
+        <v>0.005555170222539251</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01839261090316474</v>
+        <v>0.01839261090316464</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.005555170222539268</v>
+        <v>0.005555170222539251</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005462223194557394</v>
+        <v>0.005462223194557392</v>
       </c>
       <c r="J5">
-        <v>0.00889578541421605</v>
+        <v>0.008895785414216061</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.005462223194557394</v>
+        <v>0.005462223194557392</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01839261090316474</v>
+        <v>0.01839261090316464</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00889578541421605</v>
+        <v>0.008895785414216061</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0.002953335585992168</v>
+        <v>0.00295333558599216</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.126326573359071</v>
+        <v>3.126326573359066</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1658817541652091</v>
+        <v>0.1658817541652038</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -3080,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3.126326573359071</v>
+        <v>3.126326573359066</v>
       </c>
       <c r="F11">
-        <v>1.878150107735723</v>
+        <v>1.878150107735712</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.260990023832038</v>
+        <v>6.260990023831996</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.878150107735723</v>
+        <v>1.878150107735712</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -3121,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6560985812908269</v>
+        <v>0.656098581290826</v>
       </c>
       <c r="J13">
-        <v>1.25702687630964</v>
+        <v>1.257026876309643</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6560985812908269</v>
+        <v>0.656098581290826</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3166,10 +3166,10 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>6.260990023832038</v>
+        <v>6.260990023831996</v>
       </c>
       <c r="G16">
-        <v>1.25702687630964</v>
+        <v>1.257026876309643</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3179,7 +3179,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>0.1658817541652091</v>
+        <v>0.1658817541652038</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.008584895860307192</v>
+        <v>0.008584895860307178</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.0002412979630632381</v>
+        <v>0.0002412979630632304</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -3218,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.008584895860307192</v>
+        <v>0.008584895860307178</v>
       </c>
       <c r="F19">
-        <v>0.002787784893019952</v>
+        <v>0.002787784893019936</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01417234827564778</v>
+        <v>0.01417234827564768</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.002787784893019952</v>
+        <v>0.002787784893019936</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3259,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001421840613459193</v>
+        <v>0.001421840613459191</v>
       </c>
       <c r="J21">
-        <v>0.003582405581538964</v>
+        <v>0.003582405581538975</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -3291,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001421840613459193</v>
+        <v>0.001421840613459191</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -3304,10 +3304,10 @@
         <v>6</v>
       </c>
       <c r="E24">
-        <v>0.01417234827564778</v>
+        <v>0.01417234827564768</v>
       </c>
       <c r="G24">
-        <v>0.003582405581538964</v>
+        <v>0.003582405581538975</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3317,7 +3317,7 @@
         <v>7</v>
       </c>
       <c r="D25">
-        <v>0.0002412979630632381</v>
+        <v>0.0002412979630632304</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>0.005119662859610734</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H26">
         <v>0.004261773407459746</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.1634215636446428</v>
+        <v>0.1634215636446426</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0.03521738490774972</v>
+        <v>0.03521738490774963</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3494,10 +3494,10 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.1634215636446428</v>
+        <v>0.1634215636446426</v>
       </c>
       <c r="F35">
-        <v>0.06624325690692229</v>
+        <v>0.06624325690692209</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.2193247732182863</v>
+        <v>0.2193247732182851</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0.06624325690692229</v>
+        <v>0.06624325690692209</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3535,10 +3535,10 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.06513489953771755</v>
+        <v>0.06513489953771753</v>
       </c>
       <c r="J37">
-        <v>0.1060788013645068</v>
+        <v>0.1060788013645069</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.06513489953771755</v>
+        <v>0.06513489953771753</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>0.2193247732182863</v>
+        <v>0.2193247732182851</v>
       </c>
       <c r="G40">
-        <v>0.1060788013645068</v>
+        <v>0.1060788013645069</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3593,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>0.03521738490774972</v>
+        <v>0.03521738490774963</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1453.124166487187</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3770,10 +3770,10 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F51">
-        <v>16452.59494376488</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>5747.423572107639</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3808,10 +3808,10 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>54846.27260876833</v>
+        <v>54846.27260876293</v>
       </c>
       <c r="G53">
-        <v>11011.55543647244</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3829,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>10078.26752509824</v>
+        <v>10078.26752509777</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1453.124166487187</v>
+        <v>1453.124166487049</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3845,10 +3845,10 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>27386.62078262542</v>
+        <v>27386.62078262205</v>
       </c>
       <c r="F55">
-        <v>16452.59494376488</v>
+        <v>16452.59494376374</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>5747.423572107639</v>
+        <v>5747.423572108148</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3883,10 +3883,10 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>54846.27260876833</v>
+        <v>54846.27260876293</v>
       </c>
       <c r="G57">
-        <v>11011.55543647244</v>
+        <v>11011.55543647275</v>
       </c>
     </row>
   </sheetData>
